--- a/src/main/resources/template_down.xlsx
+++ b/src/main/resources/template_down.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20364" windowHeight="9720"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>订单编号</t>
   </si>
@@ -46,15 +46,6 @@
     <t>3. 最左列的每个产品型号数量，除了总数量，只能有一个是非零的数字。（即每张表格只能出现一种型号）</t>
   </si>
   <si>
-    <t>SC4156YA数量</t>
-  </si>
-  <si>
-    <t>SC4156YB数量</t>
-  </si>
-  <si>
-    <t>SC4156YC数量</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -80,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -164,21 +155,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,45 +176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +203,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,8 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +256,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,48 +319,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,25 +331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,25 +373,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +463,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,21 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -615,41 +591,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +627,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +697,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1294,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="15.95" customHeight="1"/>
@@ -1388,9 +1379,7 @@
       </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
@@ -1401,9 +1390,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -1414,9 +1401,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -1428,16 +1413,16 @@
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -1467,10 +1452,10 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="K11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:9">
@@ -2767,6 +2752,1419 @@
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
       <c r="G154" s="22"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:7">
+      <c r="A155" s="23"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+    </row>
+    <row r="156" customHeight="1" spans="1:7">
+      <c r="A156" s="23"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:7">
+      <c r="A157" s="23"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="22"/>
+    </row>
+    <row r="158" customHeight="1" spans="1:7">
+      <c r="A158" s="23"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+    </row>
+    <row r="159" customHeight="1" spans="1:7">
+      <c r="A159" s="23"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+    </row>
+    <row r="160" customHeight="1" spans="1:7">
+      <c r="A160" s="23"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+    </row>
+    <row r="161" customHeight="1" spans="1:7">
+      <c r="A161" s="23"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
+    </row>
+    <row r="162" customHeight="1" spans="1:7">
+      <c r="A162" s="23"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:7">
+      <c r="A163" s="23"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+    </row>
+    <row r="164" customHeight="1" spans="1:7">
+      <c r="A164" s="23"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+    </row>
+    <row r="165" customHeight="1" spans="1:7">
+      <c r="A165" s="23"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+    </row>
+    <row r="166" customHeight="1" spans="1:7">
+      <c r="A166" s="23"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="22"/>
+    </row>
+    <row r="167" customHeight="1" spans="1:7">
+      <c r="A167" s="23"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
+    </row>
+    <row r="168" customHeight="1" spans="1:7">
+      <c r="A168" s="23"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
+    </row>
+    <row r="169" customHeight="1" spans="1:7">
+      <c r="A169" s="23"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+    </row>
+    <row r="170" customHeight="1" spans="1:7">
+      <c r="A170" s="23"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
+    </row>
+    <row r="171" customHeight="1" spans="1:7">
+      <c r="A171" s="23"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+    </row>
+    <row r="172" customHeight="1" spans="1:7">
+      <c r="A172" s="23"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+    </row>
+    <row r="173" customHeight="1" spans="1:7">
+      <c r="A173" s="23"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+    </row>
+    <row r="174" customHeight="1" spans="1:7">
+      <c r="A174" s="23"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+    </row>
+    <row r="175" customHeight="1" spans="1:7">
+      <c r="A175" s="23"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
+    </row>
+    <row r="176" customHeight="1" spans="1:7">
+      <c r="A176" s="23"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+    </row>
+    <row r="177" customHeight="1" spans="1:7">
+      <c r="A177" s="23"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+    </row>
+    <row r="178" customHeight="1" spans="1:7">
+      <c r="A178" s="23"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+    </row>
+    <row r="179" customHeight="1" spans="1:7">
+      <c r="A179" s="23"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+    </row>
+    <row r="180" customHeight="1" spans="1:7">
+      <c r="A180" s="23"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+    </row>
+    <row r="181" customHeight="1" spans="1:7">
+      <c r="A181" s="23"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+    </row>
+    <row r="182" customHeight="1" spans="1:7">
+      <c r="A182" s="23"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:7">
+      <c r="A183" s="23"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+    </row>
+    <row r="184" customHeight="1" spans="1:7">
+      <c r="A184" s="23"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:7">
+      <c r="A185" s="23"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:7">
+      <c r="A186" s="23"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+    </row>
+    <row r="187" customHeight="1" spans="1:7">
+      <c r="A187" s="23"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+    </row>
+    <row r="188" customHeight="1" spans="1:7">
+      <c r="A188" s="23"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+    </row>
+    <row r="189" customHeight="1" spans="1:7">
+      <c r="A189" s="23"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+    </row>
+    <row r="190" customHeight="1" spans="1:7">
+      <c r="A190" s="23"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+    </row>
+    <row r="191" customHeight="1" spans="1:7">
+      <c r="A191" s="23"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+    </row>
+    <row r="192" customHeight="1" spans="1:7">
+      <c r="A192" s="23"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
+    </row>
+    <row r="193" customHeight="1" spans="1:7">
+      <c r="A193" s="23"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+    </row>
+    <row r="194" customHeight="1" spans="1:7">
+      <c r="A194" s="23"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+    </row>
+    <row r="195" customHeight="1" spans="1:7">
+      <c r="A195" s="23"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+    </row>
+    <row r="196" customHeight="1" spans="1:7">
+      <c r="A196" s="23"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+    </row>
+    <row r="197" customHeight="1" spans="1:7">
+      <c r="A197" s="23"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:7">
+      <c r="A198" s="23"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+    </row>
+    <row r="199" customHeight="1" spans="1:7">
+      <c r="A199" s="23"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+    </row>
+    <row r="200" customHeight="1" spans="1:7">
+      <c r="A200" s="23"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+    </row>
+    <row r="201" customHeight="1" spans="1:7">
+      <c r="A201" s="23"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+    </row>
+    <row r="202" customHeight="1" spans="1:7">
+      <c r="A202" s="23"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+    </row>
+    <row r="203" customHeight="1" spans="1:7">
+      <c r="A203" s="23"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+    </row>
+    <row r="204" customHeight="1" spans="1:7">
+      <c r="A204" s="23"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+    </row>
+    <row r="205" customHeight="1" spans="1:7">
+      <c r="A205" s="23"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="25"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+    </row>
+    <row r="206" customHeight="1" spans="1:7">
+      <c r="A206" s="23"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
+    </row>
+    <row r="207" customHeight="1" spans="1:7">
+      <c r="A207" s="23"/>
+      <c r="B207" s="24"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
+    </row>
+    <row r="208" customHeight="1" spans="1:7">
+      <c r="A208" s="23"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
+    </row>
+    <row r="209" customHeight="1" spans="1:7">
+      <c r="A209" s="23"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
+    </row>
+    <row r="210" customHeight="1" spans="1:7">
+      <c r="A210" s="23"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
+    </row>
+    <row r="211" customHeight="1" spans="1:7">
+      <c r="A211" s="23"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
+    </row>
+    <row r="212" customHeight="1" spans="1:7">
+      <c r="A212" s="23"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="22"/>
+    </row>
+    <row r="213" customHeight="1" spans="1:7">
+      <c r="A213" s="23"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
+    </row>
+    <row r="214" customHeight="1" spans="1:7">
+      <c r="A214" s="23"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
+    </row>
+    <row r="215" customHeight="1" spans="1:7">
+      <c r="A215" s="23"/>
+      <c r="B215" s="24"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+    </row>
+    <row r="216" customHeight="1" spans="1:7">
+      <c r="A216" s="23"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
+    </row>
+    <row r="217" customHeight="1" spans="1:7">
+      <c r="A217" s="23"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+    </row>
+    <row r="218" customHeight="1" spans="1:7">
+      <c r="A218" s="23"/>
+      <c r="B218" s="24"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
+    </row>
+    <row r="219" customHeight="1" spans="1:7">
+      <c r="A219" s="23"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+    </row>
+    <row r="220" customHeight="1" spans="1:7">
+      <c r="A220" s="23"/>
+      <c r="B220" s="24"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:7">
+      <c r="A221" s="23"/>
+      <c r="B221" s="24"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+    </row>
+    <row r="222" customHeight="1" spans="1:7">
+      <c r="A222" s="23"/>
+      <c r="B222" s="24"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="22"/>
+    </row>
+    <row r="223" customHeight="1" spans="1:7">
+      <c r="A223" s="23"/>
+      <c r="B223" s="24"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
+    </row>
+    <row r="224" customHeight="1" spans="1:7">
+      <c r="A224" s="23"/>
+      <c r="B224" s="24"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
+    </row>
+    <row r="225" customHeight="1" spans="1:7">
+      <c r="A225" s="23"/>
+      <c r="B225" s="24"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
+    </row>
+    <row r="226" customHeight="1" spans="1:7">
+      <c r="A226" s="23"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
+    </row>
+    <row r="227" customHeight="1" spans="1:7">
+      <c r="A227" s="23"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
+    </row>
+    <row r="228" customHeight="1" spans="1:7">
+      <c r="A228" s="23"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="25"/>
+      <c r="D228" s="26"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+    </row>
+    <row r="229" customHeight="1" spans="1:7">
+      <c r="A229" s="23"/>
+      <c r="B229" s="24"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
+    </row>
+    <row r="230" customHeight="1" spans="1:7">
+      <c r="A230" s="23"/>
+      <c r="B230" s="24"/>
+      <c r="C230" s="25"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
+    </row>
+    <row r="231" customHeight="1" spans="1:7">
+      <c r="A231" s="23"/>
+      <c r="B231" s="24"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
+      <c r="G231" s="22"/>
+    </row>
+    <row r="232" customHeight="1" spans="1:7">
+      <c r="A232" s="23"/>
+      <c r="B232" s="24"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="22"/>
+    </row>
+    <row r="233" customHeight="1" spans="1:7">
+      <c r="A233" s="23"/>
+      <c r="B233" s="24"/>
+      <c r="C233" s="25"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="22"/>
+      <c r="F233" s="22"/>
+      <c r="G233" s="22"/>
+    </row>
+    <row r="234" customHeight="1" spans="1:7">
+      <c r="A234" s="23"/>
+      <c r="B234" s="24"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+    </row>
+    <row r="235" customHeight="1" spans="1:7">
+      <c r="A235" s="23"/>
+      <c r="B235" s="24"/>
+      <c r="C235" s="25"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="22"/>
+      <c r="G235" s="22"/>
+    </row>
+    <row r="236" customHeight="1" spans="1:7">
+      <c r="A236" s="23"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="22"/>
+      <c r="G236" s="22"/>
+    </row>
+    <row r="237" customHeight="1" spans="1:7">
+      <c r="A237" s="23"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="25"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="22"/>
+      <c r="G237" s="22"/>
+    </row>
+    <row r="238" customHeight="1" spans="1:7">
+      <c r="A238" s="23"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="26"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="22"/>
+    </row>
+    <row r="239" customHeight="1" spans="1:7">
+      <c r="A239" s="23"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="25"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="22"/>
+      <c r="F239" s="22"/>
+      <c r="G239" s="22"/>
+    </row>
+    <row r="240" customHeight="1" spans="1:7">
+      <c r="A240" s="23"/>
+      <c r="B240" s="24"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="22"/>
+      <c r="G240" s="22"/>
+    </row>
+    <row r="241" customHeight="1" spans="1:7">
+      <c r="A241" s="23"/>
+      <c r="B241" s="24"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="22"/>
+      <c r="G241" s="22"/>
+    </row>
+    <row r="242" customHeight="1" spans="1:7">
+      <c r="A242" s="23"/>
+      <c r="B242" s="24"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="22"/>
+      <c r="F242" s="22"/>
+      <c r="G242" s="22"/>
+    </row>
+    <row r="243" customHeight="1" spans="1:7">
+      <c r="A243" s="23"/>
+      <c r="B243" s="24"/>
+      <c r="C243" s="25"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="22"/>
+      <c r="F243" s="22"/>
+      <c r="G243" s="22"/>
+    </row>
+    <row r="244" customHeight="1" spans="1:7">
+      <c r="A244" s="23"/>
+      <c r="B244" s="24"/>
+      <c r="C244" s="25"/>
+      <c r="D244" s="26"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="22"/>
+      <c r="G244" s="22"/>
+    </row>
+    <row r="245" customHeight="1" spans="1:7">
+      <c r="A245" s="23"/>
+      <c r="B245" s="24"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22"/>
+      <c r="G245" s="22"/>
+    </row>
+    <row r="246" customHeight="1" spans="1:7">
+      <c r="A246" s="23"/>
+      <c r="B246" s="24"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="22"/>
+      <c r="G246" s="22"/>
+    </row>
+    <row r="247" customHeight="1" spans="1:7">
+      <c r="A247" s="23"/>
+      <c r="B247" s="24"/>
+      <c r="C247" s="25"/>
+      <c r="D247" s="26"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="22"/>
+      <c r="G247" s="22"/>
+    </row>
+    <row r="248" customHeight="1" spans="1:7">
+      <c r="A248" s="23"/>
+      <c r="B248" s="24"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="26"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="22"/>
+      <c r="G248" s="22"/>
+    </row>
+    <row r="249" customHeight="1" spans="1:7">
+      <c r="A249" s="23"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="26"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="22"/>
+      <c r="G249" s="22"/>
+    </row>
+    <row r="250" customHeight="1" spans="1:7">
+      <c r="A250" s="23"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="26"/>
+      <c r="E250" s="22"/>
+      <c r="F250" s="22"/>
+      <c r="G250" s="22"/>
+    </row>
+    <row r="251" customHeight="1" spans="1:7">
+      <c r="A251" s="23"/>
+      <c r="B251" s="24"/>
+      <c r="C251" s="25"/>
+      <c r="D251" s="26"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="22"/>
+      <c r="G251" s="22"/>
+    </row>
+    <row r="252" customHeight="1" spans="1:7">
+      <c r="A252" s="23"/>
+      <c r="B252" s="24"/>
+      <c r="C252" s="25"/>
+      <c r="D252" s="26"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="22"/>
+      <c r="G252" s="22"/>
+    </row>
+    <row r="253" customHeight="1" spans="1:7">
+      <c r="A253" s="23"/>
+      <c r="B253" s="24"/>
+      <c r="C253" s="25"/>
+      <c r="D253" s="26"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="22"/>
+      <c r="G253" s="22"/>
+    </row>
+    <row r="254" customHeight="1" spans="1:7">
+      <c r="A254" s="23"/>
+      <c r="B254" s="24"/>
+      <c r="C254" s="25"/>
+      <c r="D254" s="26"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="22"/>
+      <c r="G254" s="22"/>
+    </row>
+    <row r="255" customHeight="1" spans="1:7">
+      <c r="A255" s="23"/>
+      <c r="B255" s="24"/>
+      <c r="C255" s="25"/>
+      <c r="D255" s="26"/>
+      <c r="E255" s="22"/>
+      <c r="F255" s="22"/>
+      <c r="G255" s="22"/>
+    </row>
+    <row r="256" customHeight="1" spans="1:7">
+      <c r="A256" s="23"/>
+      <c r="B256" s="24"/>
+      <c r="C256" s="25"/>
+      <c r="D256" s="26"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="22"/>
+      <c r="G256" s="22"/>
+    </row>
+    <row r="257" customHeight="1" spans="1:7">
+      <c r="A257" s="23"/>
+      <c r="B257" s="24"/>
+      <c r="C257" s="25"/>
+      <c r="D257" s="26"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="22"/>
+      <c r="G257" s="22"/>
+    </row>
+    <row r="258" customHeight="1" spans="1:7">
+      <c r="A258" s="23"/>
+      <c r="B258" s="24"/>
+      <c r="C258" s="25"/>
+      <c r="D258" s="26"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="22"/>
+      <c r="G258" s="22"/>
+    </row>
+    <row r="259" customHeight="1" spans="1:7">
+      <c r="A259" s="23"/>
+      <c r="B259" s="24"/>
+      <c r="C259" s="25"/>
+      <c r="D259" s="26"/>
+      <c r="E259" s="22"/>
+      <c r="F259" s="22"/>
+      <c r="G259" s="22"/>
+    </row>
+    <row r="260" customHeight="1" spans="1:7">
+      <c r="A260" s="23"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="25"/>
+      <c r="D260" s="26"/>
+      <c r="E260" s="22"/>
+      <c r="F260" s="22"/>
+      <c r="G260" s="22"/>
+    </row>
+    <row r="261" customHeight="1" spans="1:7">
+      <c r="A261" s="23"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="25"/>
+      <c r="D261" s="26"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
+    </row>
+    <row r="262" customHeight="1" spans="1:7">
+      <c r="A262" s="23"/>
+      <c r="B262" s="24"/>
+      <c r="C262" s="25"/>
+      <c r="D262" s="26"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="22"/>
+      <c r="G262" s="22"/>
+    </row>
+    <row r="263" customHeight="1" spans="1:7">
+      <c r="A263" s="23"/>
+      <c r="B263" s="24"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="26"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
+    </row>
+    <row r="264" customHeight="1" spans="1:7">
+      <c r="A264" s="23"/>
+      <c r="B264" s="24"/>
+      <c r="C264" s="25"/>
+      <c r="D264" s="26"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="22"/>
+    </row>
+    <row r="265" customHeight="1" spans="1:7">
+      <c r="A265" s="23"/>
+      <c r="B265" s="24"/>
+      <c r="C265" s="25"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="22"/>
+    </row>
+    <row r="266" customHeight="1" spans="1:7">
+      <c r="A266" s="23"/>
+      <c r="B266" s="24"/>
+      <c r="C266" s="25"/>
+      <c r="D266" s="26"/>
+      <c r="E266" s="22"/>
+      <c r="F266" s="22"/>
+      <c r="G266" s="22"/>
+    </row>
+    <row r="267" customHeight="1" spans="1:7">
+      <c r="A267" s="23"/>
+      <c r="B267" s="24"/>
+      <c r="C267" s="25"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="22"/>
+      <c r="F267" s="22"/>
+      <c r="G267" s="22"/>
+    </row>
+    <row r="268" customHeight="1" spans="1:7">
+      <c r="A268" s="23"/>
+      <c r="B268" s="24"/>
+      <c r="C268" s="25"/>
+      <c r="D268" s="26"/>
+      <c r="E268" s="22"/>
+      <c r="F268" s="22"/>
+      <c r="G268" s="22"/>
+    </row>
+    <row r="269" customHeight="1" spans="1:7">
+      <c r="A269" s="23"/>
+      <c r="B269" s="24"/>
+      <c r="C269" s="25"/>
+      <c r="D269" s="26"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
+    </row>
+    <row r="270" customHeight="1" spans="1:7">
+      <c r="A270" s="23"/>
+      <c r="B270" s="24"/>
+      <c r="C270" s="25"/>
+      <c r="D270" s="26"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
+    </row>
+    <row r="271" customHeight="1" spans="1:7">
+      <c r="A271" s="23"/>
+      <c r="B271" s="24"/>
+      <c r="C271" s="25"/>
+      <c r="D271" s="26"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="22"/>
+    </row>
+    <row r="272" customHeight="1" spans="1:7">
+      <c r="A272" s="23"/>
+      <c r="B272" s="24"/>
+      <c r="C272" s="25"/>
+      <c r="D272" s="26"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="22"/>
+    </row>
+    <row r="273" customHeight="1" spans="1:7">
+      <c r="A273" s="23"/>
+      <c r="B273" s="24"/>
+      <c r="C273" s="25"/>
+      <c r="D273" s="26"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="22"/>
+      <c r="G273" s="22"/>
+    </row>
+    <row r="274" customHeight="1" spans="1:7">
+      <c r="A274" s="23"/>
+      <c r="B274" s="24"/>
+      <c r="C274" s="25"/>
+      <c r="D274" s="26"/>
+      <c r="E274" s="22"/>
+      <c r="F274" s="22"/>
+      <c r="G274" s="22"/>
+    </row>
+    <row r="275" customHeight="1" spans="1:7">
+      <c r="A275" s="23"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="25"/>
+      <c r="D275" s="26"/>
+      <c r="E275" s="22"/>
+      <c r="F275" s="22"/>
+      <c r="G275" s="22"/>
+    </row>
+    <row r="276" customHeight="1" spans="1:7">
+      <c r="A276" s="23"/>
+      <c r="B276" s="24"/>
+      <c r="C276" s="25"/>
+      <c r="D276" s="26"/>
+      <c r="E276" s="22"/>
+      <c r="F276" s="22"/>
+      <c r="G276" s="22"/>
+    </row>
+    <row r="277" customHeight="1" spans="1:7">
+      <c r="A277" s="23"/>
+      <c r="B277" s="24"/>
+      <c r="C277" s="25"/>
+      <c r="D277" s="26"/>
+      <c r="E277" s="22"/>
+      <c r="F277" s="22"/>
+      <c r="G277" s="22"/>
+    </row>
+    <row r="278" customHeight="1" spans="1:7">
+      <c r="A278" s="23"/>
+      <c r="B278" s="24"/>
+      <c r="C278" s="25"/>
+      <c r="D278" s="26"/>
+      <c r="E278" s="22"/>
+      <c r="F278" s="22"/>
+      <c r="G278" s="22"/>
+    </row>
+    <row r="279" customHeight="1" spans="1:7">
+      <c r="A279" s="23"/>
+      <c r="B279" s="24"/>
+      <c r="C279" s="25"/>
+      <c r="D279" s="26"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="22"/>
+      <c r="G279" s="22"/>
+    </row>
+    <row r="280" customHeight="1" spans="1:7">
+      <c r="A280" s="23"/>
+      <c r="B280" s="24"/>
+      <c r="C280" s="25"/>
+      <c r="D280" s="26"/>
+      <c r="E280" s="22"/>
+      <c r="F280" s="22"/>
+      <c r="G280" s="22"/>
+    </row>
+    <row r="281" customHeight="1" spans="1:7">
+      <c r="A281" s="23"/>
+      <c r="B281" s="24"/>
+      <c r="C281" s="25"/>
+      <c r="D281" s="26"/>
+      <c r="E281" s="22"/>
+      <c r="F281" s="22"/>
+      <c r="G281" s="22"/>
+    </row>
+    <row r="282" customHeight="1" spans="1:7">
+      <c r="A282" s="23"/>
+      <c r="B282" s="24"/>
+      <c r="C282" s="25"/>
+      <c r="D282" s="26"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="22"/>
+      <c r="G282" s="22"/>
+    </row>
+    <row r="283" customHeight="1" spans="1:7">
+      <c r="A283" s="23"/>
+      <c r="B283" s="24"/>
+      <c r="C283" s="25"/>
+      <c r="D283" s="26"/>
+      <c r="E283" s="22"/>
+      <c r="F283" s="22"/>
+      <c r="G283" s="22"/>
+    </row>
+    <row r="284" customHeight="1" spans="1:7">
+      <c r="A284" s="23"/>
+      <c r="B284" s="24"/>
+      <c r="C284" s="25"/>
+      <c r="D284" s="26"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="22"/>
+      <c r="G284" s="22"/>
+    </row>
+    <row r="285" customHeight="1" spans="1:7">
+      <c r="A285" s="23"/>
+      <c r="B285" s="24"/>
+      <c r="C285" s="25"/>
+      <c r="D285" s="26"/>
+      <c r="E285" s="22"/>
+      <c r="F285" s="22"/>
+      <c r="G285" s="22"/>
+    </row>
+    <row r="286" customHeight="1" spans="1:7">
+      <c r="A286" s="23"/>
+      <c r="B286" s="24"/>
+      <c r="C286" s="25"/>
+      <c r="D286" s="26"/>
+      <c r="E286" s="22"/>
+      <c r="F286" s="22"/>
+      <c r="G286" s="22"/>
+    </row>
+    <row r="287" customHeight="1" spans="1:7">
+      <c r="A287" s="23"/>
+      <c r="B287" s="24"/>
+      <c r="C287" s="25"/>
+      <c r="D287" s="26"/>
+      <c r="E287" s="22"/>
+      <c r="F287" s="22"/>
+      <c r="G287" s="22"/>
+    </row>
+    <row r="288" customHeight="1" spans="1:7">
+      <c r="A288" s="23"/>
+      <c r="B288" s="24"/>
+      <c r="C288" s="25"/>
+      <c r="D288" s="26"/>
+      <c r="E288" s="22"/>
+      <c r="F288" s="22"/>
+      <c r="G288" s="22"/>
+    </row>
+    <row r="289" customHeight="1" spans="1:7">
+      <c r="A289" s="23"/>
+      <c r="B289" s="24"/>
+      <c r="C289" s="25"/>
+      <c r="D289" s="26"/>
+      <c r="E289" s="22"/>
+      <c r="F289" s="22"/>
+      <c r="G289" s="22"/>
+    </row>
+    <row r="290" customHeight="1" spans="1:7">
+      <c r="A290" s="23"/>
+      <c r="B290" s="24"/>
+      <c r="C290" s="25"/>
+      <c r="D290" s="26"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22"/>
+      <c r="G290" s="22"/>
+    </row>
+    <row r="291" customHeight="1" spans="1:7">
+      <c r="A291" s="23"/>
+      <c r="B291" s="24"/>
+      <c r="C291" s="25"/>
+      <c r="D291" s="26"/>
+      <c r="E291" s="22"/>
+      <c r="F291" s="22"/>
+      <c r="G291" s="22"/>
+    </row>
+    <row r="292" customHeight="1" spans="1:7">
+      <c r="A292" s="23"/>
+      <c r="B292" s="24"/>
+      <c r="C292" s="25"/>
+      <c r="D292" s="26"/>
+      <c r="E292" s="22"/>
+      <c r="F292" s="22"/>
+      <c r="G292" s="22"/>
+    </row>
+    <row r="293" customHeight="1" spans="1:7">
+      <c r="A293" s="23"/>
+      <c r="B293" s="24"/>
+      <c r="C293" s="25"/>
+      <c r="D293" s="26"/>
+      <c r="E293" s="22"/>
+      <c r="F293" s="22"/>
+      <c r="G293" s="22"/>
+    </row>
+    <row r="294" customHeight="1" spans="1:7">
+      <c r="A294" s="23"/>
+      <c r="B294" s="24"/>
+      <c r="C294" s="25"/>
+      <c r="D294" s="26"/>
+      <c r="E294" s="22"/>
+      <c r="F294" s="22"/>
+      <c r="G294" s="22"/>
+    </row>
+    <row r="295" customHeight="1" spans="1:7">
+      <c r="A295" s="23"/>
+      <c r="B295" s="24"/>
+      <c r="C295" s="25"/>
+      <c r="D295" s="26"/>
+      <c r="E295" s="22"/>
+      <c r="F295" s="22"/>
+      <c r="G295" s="22"/>
+    </row>
+    <row r="296" customHeight="1" spans="1:7">
+      <c r="A296" s="23"/>
+      <c r="B296" s="24"/>
+      <c r="C296" s="25"/>
+      <c r="D296" s="26"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="22"/>
+      <c r="G296" s="22"/>
+    </row>
+    <row r="297" customHeight="1" spans="1:7">
+      <c r="A297" s="23"/>
+      <c r="B297" s="24"/>
+      <c r="C297" s="25"/>
+      <c r="D297" s="26"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="22"/>
+      <c r="G297" s="22"/>
+    </row>
+    <row r="298" customHeight="1" spans="1:7">
+      <c r="A298" s="23"/>
+      <c r="B298" s="24"/>
+      <c r="C298" s="25"/>
+      <c r="D298" s="26"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
+    </row>
+    <row r="299" customHeight="1" spans="1:7">
+      <c r="A299" s="23"/>
+      <c r="B299" s="24"/>
+      <c r="C299" s="25"/>
+      <c r="D299" s="26"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="22"/>
+      <c r="G299" s="22"/>
+    </row>
+    <row r="300" customHeight="1" spans="1:7">
+      <c r="A300" s="23"/>
+      <c r="B300" s="24"/>
+      <c r="C300" s="25"/>
+      <c r="D300" s="26"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="22"/>
+      <c r="G300" s="22"/>
+    </row>
+    <row r="301" customHeight="1" spans="1:7">
+      <c r="A301" s="23"/>
+      <c r="B301" s="24"/>
+      <c r="C301" s="25"/>
+      <c r="D301" s="26"/>
+      <c r="E301" s="22"/>
+      <c r="F301" s="22"/>
+      <c r="G301" s="22"/>
+    </row>
+    <row r="302" customHeight="1" spans="1:7">
+      <c r="A302" s="23"/>
+      <c r="B302" s="24"/>
+      <c r="C302" s="25"/>
+      <c r="D302" s="26"/>
+      <c r="E302" s="22"/>
+      <c r="F302" s="22"/>
+      <c r="G302" s="22"/>
+    </row>
+    <row r="303" customHeight="1" spans="1:7">
+      <c r="A303" s="23"/>
+      <c r="B303" s="24"/>
+      <c r="C303" s="25"/>
+      <c r="D303" s="26"/>
+      <c r="E303" s="22"/>
+      <c r="F303" s="22"/>
+      <c r="G303" s="22"/>
+    </row>
+    <row r="304" customHeight="1" spans="1:7">
+      <c r="A304" s="23"/>
+      <c r="B304" s="24"/>
+      <c r="C304" s="25"/>
+      <c r="D304" s="26"/>
+      <c r="E304" s="22"/>
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
+    </row>
+    <row r="305" customHeight="1" spans="1:7">
+      <c r="A305" s="23"/>
+      <c r="B305" s="24"/>
+      <c r="C305" s="25"/>
+      <c r="D305" s="26"/>
+      <c r="E305" s="22"/>
+      <c r="F305" s="22"/>
+      <c r="G305" s="22"/>
+    </row>
+    <row r="306" customHeight="1" spans="1:7">
+      <c r="A306" s="23"/>
+      <c r="B306" s="24"/>
+      <c r="C306" s="25"/>
+      <c r="D306" s="26"/>
+      <c r="E306" s="22"/>
+      <c r="F306" s="22"/>
+      <c r="G306" s="22"/>
+    </row>
+    <row r="307" customHeight="1" spans="1:7">
+      <c r="A307" s="23"/>
+      <c r="B307" s="24"/>
+      <c r="C307" s="25"/>
+      <c r="D307" s="26"/>
+      <c r="E307" s="22"/>
+      <c r="F307" s="22"/>
+      <c r="G307" s="22"/>
+    </row>
+    <row r="308" customHeight="1" spans="1:7">
+      <c r="A308" s="23"/>
+      <c r="B308" s="24"/>
+      <c r="C308" s="25"/>
+      <c r="D308" s="26"/>
+      <c r="E308" s="22"/>
+      <c r="F308" s="22"/>
+      <c r="G308" s="22"/>
+    </row>
+    <row r="309" customHeight="1" spans="1:7">
+      <c r="A309" s="23"/>
+      <c r="B309" s="24"/>
+      <c r="C309" s="25"/>
+      <c r="D309" s="26"/>
+      <c r="E309" s="22"/>
+      <c r="F309" s="22"/>
+      <c r="G309" s="22"/>
+    </row>
+    <row r="310" customHeight="1" spans="1:7">
+      <c r="A310" s="23"/>
+      <c r="B310" s="24"/>
+      <c r="C310" s="25"/>
+      <c r="D310" s="26"/>
+      <c r="E310" s="22"/>
+      <c r="F310" s="22"/>
+      <c r="G310" s="22"/>
+    </row>
+    <row r="311" customHeight="1" spans="1:7">
+      <c r="A311" s="23"/>
+      <c r="B311" s="24"/>
+      <c r="C311" s="25"/>
+      <c r="D311" s="26"/>
+      <c r="E311" s="22"/>
+      <c r="F311" s="22"/>
+      <c r="G311" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:L104">
